--- a/ES2N - Requisitos Funcionais 12-04 REV1304.xlsx
+++ b/ES2N - Requisitos Funcionais 12-04 REV1304.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Aulas2023_1sem\AtividadesProjetosES2\ConsertaMinhaImpressora\12-04\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6319CBBC-4963-4970-AA96-610F57C1839D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4649A6F-41E6-4603-898F-EA96F0C3D4A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-109" yWindow="-109" windowWidth="23452" windowHeight="12561" xr2:uid="{4ABF0B59-3EAA-4472-9014-1459B26A9A3B}"/>
   </bookViews>
@@ -82,7 +82,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="68">
   <si>
     <t xml:space="preserve">LISTA DE REQUISITOS FUNCIONAIS </t>
   </si>
@@ -319,9 +319,6 @@
     <t>DATA: 12/04/2023</t>
   </si>
   <si>
-    <t>Deve ser executado RF01  será colocado no diagrama de baixo nivel</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">Permite à instituição cadastrar e disponibilizar os horários disponíveis </t>
     </r>
@@ -358,7 +355,7 @@
     <t>USUARIO PODERA VER ALGUMA INFORMACAO SEM ESTAR CADASTRADO?? NÃO SERIA MELHOR COLOCAR UM USUARIO ESPECIALIZANDO ENTRE DOADOR, INSTITUICAO E ADMINISTRADOR?</t>
   </si>
   <si>
-    <t>diferenca entre RF8 E RF1????</t>
+    <t>Pode chamar RF08</t>
   </si>
 </sst>
 </file>
@@ -655,6 +652,12 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -679,13 +682,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1004,8 +1001,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3837308E-2BE3-4051-9282-618B7392BE50}">
   <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A22" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A18" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.55" x14ac:dyDescent="0.3"/>
@@ -1018,13 +1015,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="32.1" thickBot="1" x14ac:dyDescent="0.65">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="20"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="22"/>
     </row>
     <row r="3" spans="1:5" ht="20.6" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
@@ -1044,8 +1041,8 @@
       </c>
     </row>
     <row r="7" spans="1:5" ht="113.75" x14ac:dyDescent="0.55000000000000004">
-      <c r="C7" s="28" t="s">
-        <v>67</v>
+      <c r="C7" s="19" t="s">
+        <v>66</v>
       </c>
       <c r="E7" s="10"/>
     </row>
@@ -1082,9 +1079,7 @@
       <c r="D10" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="E10" s="27" t="s">
-        <v>68</v>
-      </c>
+      <c r="E10" s="28"/>
     </row>
     <row r="11" spans="1:5" s="8" customFormat="1" ht="23.6" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
@@ -1141,7 +1136,7 @@
         <v>26</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D14" s="14" t="s">
         <v>8</v>
@@ -1163,7 +1158,7 @@
       </c>
       <c r="E15" s="9"/>
     </row>
-    <row r="16" spans="1:5" s="8" customFormat="1" ht="70.8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" s="8" customFormat="1" ht="47.2" x14ac:dyDescent="0.3">
       <c r="A16" s="6" t="s">
         <v>17</v>
       </c>
@@ -1171,14 +1166,12 @@
         <v>25</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D16" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="E16" s="26" t="s">
-        <v>63</v>
-      </c>
+      <c r="E16" s="7"/>
     </row>
     <row r="17" spans="1:5" s="8" customFormat="1" ht="70.8" x14ac:dyDescent="0.3">
       <c r="A17" s="6" t="s">
@@ -1247,8 +1240,8 @@
       <c r="B21" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="C21" s="26" t="s">
-        <v>66</v>
+      <c r="C21" s="18" t="s">
+        <v>65</v>
       </c>
       <c r="D21" s="14" t="s">
         <v>20</v>
@@ -1313,16 +1306,18 @@
       <c r="D25" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="E25" s="13"/>
+      <c r="E25" s="13" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26" s="21" t="s">
+      <c r="A26" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="B26" s="22"/>
-      <c r="C26" s="22"/>
-      <c r="D26" s="22"/>
-      <c r="E26" s="23"/>
+      <c r="B26" s="24"/>
+      <c r="C26" s="24"/>
+      <c r="D26" s="24"/>
+      <c r="E26" s="25"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="12" t="s">
@@ -1340,16 +1335,16 @@
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A32" s="24" t="s">
+      <c r="A32" s="26" t="s">
         <v>60</v>
       </c>
-      <c r="B32" s="24"/>
-      <c r="C32" s="24"/>
+      <c r="B32" s="26"/>
+      <c r="C32" s="26"/>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A33" s="25"/>
-      <c r="B33" s="25"/>
-      <c r="C33" s="25"/>
+      <c r="A33" s="27"/>
+      <c r="B33" s="27"/>
+      <c r="C33" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -1365,6 +1360,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101000A4643FAE313FC459971E301E53A17B3" ma:contentTypeVersion="3" ma:contentTypeDescription="Crie um novo documento." ma:contentTypeScope="" ma:versionID="9d896a6183b33d71f2ecfd3476a201c4">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ca07c7a1-fca5-423a-b69c-370f5f0c18f4" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="3742ebf2b1be5011fe282bff0f53ee36" ns2:_="">
     <xsd:import namespace="ca07c7a1-fca5-423a-b69c-370f5f0c18f4"/>
@@ -1502,22 +1512,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9030A888-F94C-446A-AE50-538902A00351}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9386896A-91B6-4EC7-AC94-350129FCA8CC}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4D91BD0C-990D-45CA-B6FD-C9B8E79DE4A7}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1533,21 +1545,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9386896A-91B6-4EC7-AC94-350129FCA8CC}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9030A888-F94C-446A-AE50-538902A00351}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>